--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,25 +946,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -956,20 +975,23 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,37 +1054,40 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,28 +1162,31 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1585,66 +1654,72 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2041,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1984,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2086,20 +2193,23 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2109,8 +2219,8 @@
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2124,8 +2234,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2300,7 +2425,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -2318,16 +2443,19 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,51 +2567,57 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -2487,31 +2626,34 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,13 +2690,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2584,10 +2729,13 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,13 +2854,16 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -2715,13 +2872,13 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
@@ -2730,16 +2887,19 @@
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,13 +3076,16 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="E72" s="3">
         <v>-23300</v>
@@ -2921,31 +3094,34 @@
         <v>-23300</v>
       </c>
       <c r="G72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="H72" s="3">
         <v>-23200</v>
       </c>
       <c r="I72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="J72" s="3">
         <v>-23300</v>
       </c>
       <c r="K72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
       <c r="F76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
@@ -3088,16 +3273,19 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3471,20 +3687,20 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3492,13 +3708,16 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3539,20 +3759,23 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3654,19 +3883,22 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3854,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -3866,13 +4111,16 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,10 +4155,13 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,78 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1165,28 +1233,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1657,69 +1797,81 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,8 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,19 +2236,25 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2070,11 +2268,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2085,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2196,8 +2412,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2205,11 +2421,17 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2222,11 +2444,11 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2237,11 +2459,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2659,14 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2428,10 +2680,10 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2446,16 +2698,22 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2791,14 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2838,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,81 +2853,93 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,10 +2994,10 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2732,10 +3024,16 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3167,14 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,40 +3182,46 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3421,14 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3088,40 +3436,46 @@
         <v>-23500</v>
       </c>
       <c r="E72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="F72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="G72" s="3">
         <v>-23300</v>
       </c>
       <c r="H72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3609,14 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3252,40 +3624,46 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3690,34 +4124,40 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,34 +4331,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4102,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -4114,13 +4606,19 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,10 +4656,16 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,23 +1020,23 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1024,20 +1044,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,43 +1138,46 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,43 +1188,46 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,28 +1273,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,43 +1408,46 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,43 +1558,46 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,43 +1608,46 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1803,28 +1873,31 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,43 +1908,46 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,95 +2008,101 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,8 +2355,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2274,8 +2373,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2418,20 +2526,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2450,8 +2561,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2576,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2686,7 +2812,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2704,16 +2830,19 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2859,40 +2996,43 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,13 +3040,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2915,31 +3055,34 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3000,7 +3146,7 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3030,10 +3176,13 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3328,16 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
@@ -3188,7 +3346,7 @@
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -3197,13 +3355,13 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3212,16 +3370,19 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
+        <v>500</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3442,7 +3616,7 @@
         <v>-23500</v>
       </c>
       <c r="G72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="H72" s="3">
         <v>-23300</v>
@@ -3451,31 +3625,34 @@
         <v>-23300</v>
       </c>
       <c r="J72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="K72" s="3">
         <v>-23200</v>
       </c>
       <c r="L72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="M72" s="3">
         <v>-23300</v>
       </c>
       <c r="N72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-23200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3630,22 +3816,22 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
@@ -3654,16 +3840,19 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,43 +3968,46 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4130,20 +4347,20 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4151,13 +4368,16 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,21 +4407,21 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4210,20 +4431,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4337,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4352,19 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4600,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4612,13 +4858,16 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,10 +4911,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1042,70 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,43 +1194,49 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,43 +1250,49 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,28 +1343,34 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,43 +1496,49 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1561,43 +1664,49 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1611,43 +1720,49 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1876,28 +2015,34 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,43 +2056,49 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2011,98 +2168,110 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,13 +2532,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2358,11 +2555,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2376,11 +2573,11 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2529,8 +2744,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2538,11 +2753,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2564,11 +2785,11 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2579,11 +2800,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2815,10 +3066,10 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -2833,16 +3084,22 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3192,14 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3248,14 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2999,40 +3272,46 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,46 +3322,52 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3149,10 +3440,10 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3179,10 +3470,16 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,49 +3655,55 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
       </c>
       <c r="K66" s="3">
+        <v>500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3619,40 +3966,46 @@
         <v>-23500</v>
       </c>
       <c r="H72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="I72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="J72" s="3">
         <v>-23300</v>
       </c>
       <c r="K72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +4166,14 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3819,40 +4190,46 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3971,43 +4360,49 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4350,34 +4783,40 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,44 +4851,50 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4570,34 +5029,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4849,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -4861,13 +5352,19 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,10 +5411,16 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1065,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1068,23 +1088,23 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1200,43 +1227,46 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,43 +1286,46 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1349,28 +1383,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1521,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1502,43 +1545,46 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1698,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1670,48 +1722,51 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1726,43 +1781,46 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2021,33 +2091,36 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2062,43 +2135,46 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2229,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2174,104 +2253,110 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,16 +2634,19 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2561,8 +2660,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2579,8 +2678,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2750,25 +2858,28 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2791,8 +2902,8 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2806,8 +2917,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3165,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -3072,7 +3198,7 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3090,16 +3216,19 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,13 +3329,16 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3254,13 +3388,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3278,40 +3415,43 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,13 +3468,13 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3343,31 +3483,34 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3446,7 +3592,7 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3476,10 +3622,13 @@
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3661,7 +3819,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
@@ -3670,7 +3828,7 @@
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3679,13 +3837,13 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -3694,16 +3852,19 @@
         <v>500</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4119,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="E72" s="3">
         <v>-23500</v>
@@ -3972,7 +4146,7 @@
         <v>-23500</v>
       </c>
       <c r="J72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="K72" s="3">
         <v>-23300</v>
@@ -3981,31 +4155,34 @@
         <v>-23300</v>
       </c>
       <c r="M72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="N72" s="3">
         <v>-23200</v>
       </c>
       <c r="O72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="P72" s="3">
         <v>-23300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-23200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4355,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -4196,22 +4382,22 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -4220,16 +4406,19 @@
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4473,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4366,43 +4561,46 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4973,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4789,20 +5006,20 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4810,13 +5027,16 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4857,21 +5078,21 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4881,20 +5102,23 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5035,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5050,19 +5280,22 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5346,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -5358,13 +5604,16 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,10 +5666,13 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,11 +1099,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1091,23 +1111,23 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1115,20 +1135,23 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,16 +1232,17 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1230,43 +1257,46 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1289,43 +1319,46 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1386,28 +1420,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,17 +1564,20 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1548,43 +1591,46 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,17 +1750,20 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1725,52 +1777,55 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1784,43 +1839,46 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2094,37 +2164,40 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2138,43 +2211,46 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,17 +2308,20 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2256,107 +2335,113 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,19 +2733,22 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2663,8 +2762,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2681,8 +2780,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2861,20 +2969,23 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2905,8 +3016,8 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2920,8 +3031,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,7 +3303,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3201,7 +3327,7 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3219,16 +3345,19 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,7 +3475,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3391,16 +3525,19 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3418,40 +3555,43 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3471,13 +3611,13 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3486,31 +3626,34 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3595,7 +3741,7 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -3625,10 +3771,13 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3822,7 +3980,7 @@
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
@@ -3831,7 +3989,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3840,13 +3998,13 @@
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -3855,16 +4013,19 @@
         <v>500</v>
       </c>
       <c r="S66" s="3">
+        <v>500</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,7 +4305,7 @@
         <v>-23600</v>
       </c>
       <c r="E72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="F72" s="3">
         <v>-23500</v>
@@ -4149,7 +4323,7 @@
         <v>-23500</v>
       </c>
       <c r="K72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="L72" s="3">
         <v>-23300</v>
@@ -4158,31 +4332,34 @@
         <v>-23300</v>
       </c>
       <c r="N72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="O72" s="3">
         <v>-23200</v>
       </c>
       <c r="P72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="Q72" s="3">
         <v>-23300</v>
       </c>
       <c r="R72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-23200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,7 +4553,7 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -4385,22 +4571,22 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
@@ -4409,16 +4595,19 @@
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,81 +4665,87 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -4564,43 +4759,46 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,17 +5190,20 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -5009,20 +5226,20 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5030,13 +5247,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5081,21 +5302,21 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5105,20 +5326,23 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5268,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5283,19 +5513,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,16 +5796,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5595,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5607,13 +5853,16 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,10 +5918,13 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1102,11 +1121,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1114,23 +1133,23 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1138,20 +1157,23 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,19 +1258,20 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1260,43 +1286,46 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,11 +1333,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1322,43 +1351,46 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,28 +1456,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,20 +1606,23 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1594,43 +1636,46 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,20 +1801,23 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1780,55 +1831,58 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1842,43 +1896,46 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2167,40 +2236,43 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2214,43 +2286,46 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,20 +2386,23 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2338,110 +2416,116 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,22 +2831,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2765,8 +2863,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2783,8 +2881,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2972,20 +3079,23 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2996,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3019,8 +3129,8 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3034,8 +3144,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3306,7 +3431,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3330,7 +3455,7 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -3348,16 +3473,19 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,19 +3596,22 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3528,19 +3661,22 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3558,45 +3694,48 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3614,13 +3753,13 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3629,31 +3768,34 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3744,7 +3889,7 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3774,10 +3919,13 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3983,7 +4140,7 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3992,7 +4149,7 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -4001,13 +4158,13 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
+        <v>500</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
@@ -4016,16 +4173,19 @@
         <v>500</v>
       </c>
       <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,19 +4466,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23600</v>
+        <v>-23700</v>
       </c>
       <c r="E72" s="3">
         <v>-23600</v>
       </c>
       <c r="F72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="G72" s="3">
         <v>-23500</v>
@@ -4326,7 +4499,7 @@
         <v>-23500</v>
       </c>
       <c r="L72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="M72" s="3">
         <v>-23300</v>
@@ -4335,31 +4508,34 @@
         <v>-23300</v>
       </c>
       <c r="O72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="P72" s="3">
         <v>-23200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="R72" s="3">
         <v>-23300</v>
       </c>
       <c r="S72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-23200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,19 +4726,22 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -4574,22 +4759,22 @@
         <v>-500</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
@@ -4598,16 +4783,19 @@
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,87 +4856,93 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4762,43 +4956,46 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5202,11 +5418,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -5229,20 +5445,20 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5250,13 +5466,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,47 +5498,48 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5329,20 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5501,13 +5730,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5516,19 +5745,22 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5844,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5856,13 +6101,16 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,10 +6169,13 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,113 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -771,17 +779,17 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1141,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1311,15 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1277,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1289,48 +1343,54 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1338,59 +1398,65 @@
       <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,31 +1480,33 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1459,28 +1527,34 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1618,14 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,16 +1689,22 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1627,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1639,43 +1725,49 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,16 +1902,22 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1822,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1834,51 +1938,57 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1887,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1899,43 +2009,49 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,31 +2328,37 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2239,36 +2379,42 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2277,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2289,43 +2435,49 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,16 +2541,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2407,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2419,113 +2577,125 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2746,15 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,13 +2884,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2845,17 +3043,17 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2866,11 +3064,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2884,11 +3082,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,13 +3097,19 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3082,8 +3298,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3091,28 +3307,34 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3132,11 +3354,11 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3147,11 +3369,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3665,19 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3434,10 +3686,10 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -3458,10 +3710,10 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3476,16 +3728,22 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3861,14 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3664,25 +3932,31 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3697,51 +3971,57 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3756,46 +4036,52 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3892,10 +4184,10 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3922,10 +4214,16 @@
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,19 +4429,25 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -4143,49 +4459,55 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
       </c>
       <c r="U66" s="3">
+        <v>500</v>
+      </c>
+      <c r="V66" s="3">
+        <v>500</v>
+      </c>
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,25 +4811,31 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23700</v>
+        <v>-23400</v>
       </c>
       <c r="E72" s="3">
         <v>-23600</v>
       </c>
       <c r="F72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-23500</v>
-      </c>
       <c r="H72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="I72" s="3">
         <v>-23500</v>
@@ -4502,40 +4850,46 @@
         <v>-23500</v>
       </c>
       <c r="M72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="N72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="O72" s="3">
         <v>-23300</v>
       </c>
       <c r="P72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-22900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-23700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,25 +5095,31 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
       </c>
       <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
-        <v>-500</v>
-      </c>
       <c r="H76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-500</v>
@@ -4762,40 +5134,46 @@
         <v>-500</v>
       </c>
       <c r="M76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,86 +5237,98 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4947,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4959,43 +5349,49 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,26 +5837,32 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5448,34 +5882,40 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5525,47 +5967,53 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5733,34 +6193,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,25 +6530,31 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6092,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6104,13 +6596,19 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,10 +6670,16 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -791,8 +795,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,11 +1178,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1170,11 +1190,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1182,23 +1202,23 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1206,20 +1226,23 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,28 +1339,29 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1349,58 +1376,61 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1410,8 +1440,8 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1420,43 +1450,46 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,22 +1515,23 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1508,8 +1542,8 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1533,28 +1567,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,29 +1735,32 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1731,43 +1774,46 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,29 +1957,32 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1944,64 +1996,67 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -2015,43 +2070,46 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,22 +2401,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -2360,8 +2430,8 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2385,49 +2455,52 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2441,43 +2514,46 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,29 +2623,32 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2583,119 +2662,125 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,7 +2844,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,16 +2980,19 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3049,14 +3148,14 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3070,8 +3169,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3088,8 +3187,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3304,20 +3412,23 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3327,8 +3438,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3337,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3360,8 +3471,8 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3375,8 +3486,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,7 +3806,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3692,7 +3818,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -3716,7 +3842,7 @@
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3734,16 +3860,19 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3926,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3882,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,19 +4084,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3977,40 +4114,43 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,13 +4158,13 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -4042,13 +4182,13 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -4057,31 +4197,34 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
+        <v>300</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
       <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4190,7 +4336,7 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -4220,10 +4366,13 @@
         <v>200</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,13 +4602,13 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -4465,7 +4623,7 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -4474,7 +4632,7 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -4483,13 +4641,13 @@
         <v>500</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
@@ -4498,16 +4656,19 @@
         <v>500</v>
       </c>
       <c r="W66" s="3">
+        <v>500</v>
+      </c>
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,19 +5000,19 @@
         <v>-23400</v>
       </c>
       <c r="E72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23600</v>
       </c>
       <c r="H72" s="3">
         <v>-23600</v>
       </c>
       <c r="I72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="J72" s="3">
         <v>-23500</v>
@@ -4856,7 +5030,7 @@
         <v>-23500</v>
       </c>
       <c r="O72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="P72" s="3">
         <v>-23300</v>
@@ -4865,31 +5039,34 @@
         <v>-23300</v>
       </c>
       <c r="R72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="S72" s="3">
         <v>-23200</v>
       </c>
       <c r="T72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="U72" s="3">
         <v>-23300</v>
       </c>
       <c r="V72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="W72" s="3">
         <v>-23200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5110,19 +5296,19 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
@@ -5140,22 +5326,22 @@
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-400</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
@@ -5164,16 +5350,19 @@
         <v>-400</v>
       </c>
       <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,105 +5432,111 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -5355,43 +5550,46 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,16 +6057,19 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -5861,11 +6078,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5888,20 +6105,20 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -5909,13 +6126,16 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5973,24 +6194,24 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6000,20 +6221,23 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6199,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6214,19 +6444,22 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,17 +6779,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6554,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -6590,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -6602,13 +6848,16 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,10 +6925,13 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,16 +781,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -798,8 +801,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -843,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,31 +1031,32 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,13 +1183,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1181,11 +1200,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1193,11 +1212,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1205,23 +1224,23 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1229,20 +1248,23 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,22 +1375,22 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1379,43 +1405,46 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,17 +1452,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1443,8 +1472,8 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1453,43 +1482,46 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,25 +1548,26 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1578,8 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1570,42 +1603,45 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,32 +1777,35 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1777,43 +1819,46 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,32 +2008,35 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1999,67 +2050,70 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2073,43 +2127,46 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,25 +2470,28 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -2433,8 +2502,8 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2458,52 +2527,55 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2517,43 +2589,46 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,32 +2701,35 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2665,122 +2743,128 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2847,7 +2933,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2909,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3151,14 +3249,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3172,8 +3270,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -3190,8 +3288,8 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3217,7 +3318,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3415,20 +3522,23 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3441,8 +3551,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3451,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -3474,8 +3584,8 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -3489,8 +3599,8 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3809,7 +3934,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -3821,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -3845,7 +3970,7 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
@@ -3863,16 +3988,19 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,16 +4056,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4019,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4075,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4087,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4117,40 +4253,43 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4161,13 +4300,13 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4185,13 +4324,13 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -4200,31 +4339,34 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
       </c>
       <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
-        <v>100</v>
-      </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -4339,7 +4484,7 @@
         <v>500</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -4369,10 +4514,13 @@
         <v>200</v>
       </c>
       <c r="Z62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,25 +4747,28 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -4626,7 +4783,7 @@
         <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -4635,7 +4792,7 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -4644,13 +4801,13 @@
         <v>500</v>
       </c>
       <c r="S66" s="3">
+        <v>500</v>
+      </c>
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
@@ -4659,16 +4816,19 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,31 +5161,34 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23400</v>
+        <v>-23200</v>
       </c>
       <c r="E72" s="3">
         <v>-23400</v>
       </c>
       <c r="F72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-23600</v>
       </c>
       <c r="I72" s="3">
         <v>-23600</v>
       </c>
       <c r="J72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K72" s="3">
         <v>-23500</v>
@@ -5033,7 +5206,7 @@
         <v>-23500</v>
       </c>
       <c r="P72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="Q72" s="3">
         <v>-23300</v>
@@ -5042,31 +5215,34 @@
         <v>-23300</v>
       </c>
       <c r="S72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="T72" s="3">
         <v>-23200</v>
       </c>
       <c r="U72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="V72" s="3">
         <v>-23300</v>
       </c>
       <c r="W72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="X72" s="3">
         <v>-23200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,31 +5469,34 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
@@ -5329,22 +5514,22 @@
         <v>-500</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-400</v>
       </c>
       <c r="V76" s="3">
         <v>-400</v>
@@ -5353,16 +5538,19 @@
         <v>-400</v>
       </c>
       <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,111 +5623,117 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -5553,43 +5747,46 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6069,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -6081,11 +6297,11 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -6108,20 +6324,20 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6129,13 +6345,16 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,13 +6381,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6197,24 +6417,24 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6224,20 +6444,23 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6432,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6447,19 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,11 +7036,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6803,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6839,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -6851,13 +7096,16 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,10 +7176,13 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,22 +789,22 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -804,11 +812,11 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -849,8 +857,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,11 +1086,11 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1220,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,25 +1418,27 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1396,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1408,120 +1462,132 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,31 +1615,33 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1581,11 +1649,11 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1606,48 +1674,54 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1777,14 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,13 +1860,19 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1795,13 +1881,13 @@
         <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1810,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1822,43 +1908,49 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2109,19 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2026,13 +2130,13 @@
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -2041,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2053,48 +2157,54 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2103,13 +2213,13 @@
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -2118,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2130,43 +2240,49 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,31 +2607,37 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2505,11 +2645,11 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2530,33 +2670,39 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2565,13 +2711,13 @@
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2580,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2592,43 +2738,49 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2856,19 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2719,13 +2877,13 @@
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2734,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2746,125 +2904,137 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3093,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2936,10 +3110,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2998,8 +3172,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3152,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3252,17 +3450,17 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3273,11 +3471,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3291,11 +3489,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3306,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3321,10 +3525,10 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3383,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3525,8 +3741,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3534,25 +3750,31 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3564,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3587,11 +3809,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3602,11 +3824,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4168,14 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,10 +4189,10 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -3949,10 +4201,10 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -3973,10 +4225,10 @@
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
@@ -3991,16 +4243,22 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4317,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,13 +4328,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4134,8 +4396,14 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4155,16 +4423,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4211,8 +4479,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,22 +4500,22 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4256,40 +4530,46 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
       <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4303,16 +4583,16 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4327,46 +4607,52 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,10 +4743,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -4487,10 +4779,10 @@
         <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -4517,10 +4809,16 @@
         <v>200</v>
       </c>
       <c r="AA62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +5060,14 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,22 +5075,22 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -4786,49 +5102,55 @@
         <v>700</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
+        <v>500</v>
+      </c>
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
       </c>
       <c r="Y66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5506,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,28 +5521,28 @@
         <v>-23200</v>
       </c>
       <c r="E72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-23700</v>
       </c>
       <c r="I72" s="3">
         <v>-23600</v>
       </c>
       <c r="J72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="K72" s="3">
-        <v>-23500</v>
-      </c>
       <c r="L72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="M72" s="3">
         <v>-23500</v>
@@ -5209,40 +5557,46 @@
         <v>-23500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="R72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="S72" s="3">
         <v>-23300</v>
       </c>
       <c r="T72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-23200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-23300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-23300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-23700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5838,14 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,28 +5853,28 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
       </c>
       <c r="J76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
-        <v>-500</v>
-      </c>
       <c r="L76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
@@ -5517,40 +5889,46 @@
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-400</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
       </c>
       <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +6004,107 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5723,13 +6113,13 @@
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -5738,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -5750,43 +6140,49 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6704,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6288,26 +6722,26 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6327,34 +6761,40 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6664,34 +7124,40 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,25 +7531,25 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7087,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7099,13 +7591,19 @@
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,10 +7677,16 @@
         <v>0</v>
       </c>
       <c r="AA101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPOWF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SPOWF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,25 +793,25 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -818,8 +822,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,11 +1257,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1249,11 +1269,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1261,11 +1281,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1273,23 +1293,23 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>100</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1297,20 +1317,23 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,16 +1446,17 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1438,22 +1465,22 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1468,70 +1495,73 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1541,8 +1571,8 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1551,43 +1581,46 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,25 +1660,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1655,8 +1689,8 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1680,28 +1714,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1906,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1878,29 +1921,29 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1914,43 +1957,46 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2164,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2127,29 +2179,29 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2163,43 +2215,46 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2210,29 +2265,29 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2246,43 +2301,46 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,25 +2692,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2721,8 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2676,28 +2746,31 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2708,29 +2781,29 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2744,43 +2817,46 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2938,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2874,29 +2953,29 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2910,131 +2989,137 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,13 +3181,14 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -3116,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,13 +3351,16 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3279,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3456,14 +3555,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3477,8 +3576,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3495,8 +3594,8 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3531,7 +3633,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3747,20 +3855,23 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3792,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3815,8 +3926,8 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>100</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3830,8 +3941,8 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4297,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4195,7 +4321,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -4207,7 +4333,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -4231,7 +4357,7 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -4249,16 +4375,19 @@
         <v>100</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4334,10 +4465,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4429,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4506,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4536,40 +4673,43 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4589,13 +4729,13 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4613,13 +4753,13 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
@@ -4628,31 +4768,34 @@
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>300</v>
       </c>
       <c r="Z60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
-        <v>100</v>
-      </c>
       <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4749,7 +4895,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -4785,7 +4931,7 @@
         <v>500</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -4815,10 +4961,13 @@
         <v>200</v>
       </c>
       <c r="AC62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5221,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5075,25 +5233,25 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
       </c>
       <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
@@ -5108,7 +5266,7 @@
         <v>700</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
@@ -5117,7 +5275,7 @@
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -5126,13 +5284,13 @@
         <v>500</v>
       </c>
       <c r="V66" s="3">
+        <v>500</v>
+      </c>
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>500</v>
@@ -5141,16 +5299,19 @@
         <v>500</v>
       </c>
       <c r="AA66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,40 +5683,43 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23400</v>
       </c>
       <c r="H72" s="3">
         <v>-23400</v>
       </c>
       <c r="I72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-23600</v>
       </c>
       <c r="L72" s="3">
         <v>-23600</v>
       </c>
       <c r="M72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="N72" s="3">
         <v>-23500</v>
@@ -5563,7 +5737,7 @@
         <v>-23500</v>
       </c>
       <c r="S72" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="T72" s="3">
         <v>-23300</v>
@@ -5572,31 +5746,34 @@
         <v>-23300</v>
       </c>
       <c r="V72" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="W72" s="3">
         <v>-23200</v>
       </c>
       <c r="X72" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="Y72" s="3">
         <v>-23300</v>
       </c>
       <c r="Z72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-23700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,13 +6027,16 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -5859,25 +6045,25 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-600</v>
       </c>
       <c r="M76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
@@ -5895,22 +6081,22 @@
         <v>-500</v>
       </c>
       <c r="S76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
       </c>
       <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-400</v>
       </c>
       <c r="Y76" s="3">
         <v>-400</v>
@@ -5919,16 +6105,19 @@
         <v>-400</v>
       </c>
       <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6199,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6110,29 +6305,29 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -6146,43 +6341,46 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,13 +6924,16 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6728,10 +6945,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -6740,11 +6957,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -6767,20 +6984,20 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
@@ -6788,13 +7005,16 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6868,24 +7089,24 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6895,20 +7116,23 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7130,13 +7360,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7145,19 +7375,22 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7537,11 +7783,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7549,10 +7795,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7585,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -7597,13 +7843,16 @@
         <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,15 +7932,18 @@
         <v>0</v>
       </c>
       <c r="AC101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
